--- a/spreadsheets_final/marinegeo_spreadsheet_seagrass_macroalgae.xlsx
+++ b/spreadsheets_final/marinegeo_spreadsheet_seagrass_macroalgae.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Dropbox (Smithsonian)\MarineGEO\Research\Modules\Seagrasses\seagrass-macroalgae\Spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Repositories\protocols\spreadsheets_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF96B858-6065-41A4-BAA0-7E0A797B088F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64FE296-3777-4BB9-955C-A4D34051D4AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol_metadata" sheetId="1" r:id="rId1"/>
@@ -290,9 +290,6 @@
     <t>data_entry_year</t>
   </si>
   <si>
-    <t>v0.4.0</t>
-  </si>
-  <si>
     <t>Day of final data entry</t>
   </si>
   <si>
@@ -359,6 +356,9 @@
   </si>
   <si>
     <t>macroalgae_id</t>
+  </si>
+  <si>
+    <t>v0.5.0</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1167,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -1178,7 +1178,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="161.1" customHeight="1">
       <c r="B1" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1">
@@ -1236,7 +1236,7 @@
         <v>48</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39.950000000000003" customHeight="1">
@@ -1362,13 +1362,13 @@
         <v>68</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L1" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1725,10 +1725,10 @@
         <v>69</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H1" s="31" t="s">
         <v>70</v>
@@ -1737,7 +1737,7 @@
         <v>71</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2163,13 +2163,13 @@
         <v>74</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -2181,13 +2181,13 @@
         <v>75</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -2199,13 +2199,13 @@
         <v>76</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -2470,10 +2470,10 @@
         <v>57</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>17</v>
@@ -2489,7 +2489,7 @@
         <v>45</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>17</v>
@@ -2502,10 +2502,10 @@
         <v>57</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>17</v>
@@ -2616,10 +2616,10 @@
         <v>58</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="35" t="s">
         <v>17</v>
@@ -2632,10 +2632,10 @@
         <v>58</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D34" s="35" t="s">
         <v>17</v>
@@ -2688,10 +2688,10 @@
         <v>58</v>
       </c>
       <c r="B37" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>85</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>86</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>17</v>
